--- a/Code/Results/Cases/Case_7_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_62/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.621843908323854</v>
+        <v>2.659216408532814</v>
       </c>
       <c r="C2">
-        <v>0.4492509463609906</v>
+        <v>0.4912413198530601</v>
       </c>
       <c r="D2">
-        <v>0.05984853054101791</v>
+        <v>0.05313609308040412</v>
       </c>
       <c r="E2">
-        <v>0.03920313560816879</v>
+        <v>0.04535718814374767</v>
       </c>
       <c r="F2">
-        <v>2.2317307181264</v>
+        <v>0.5558501707677621</v>
       </c>
       <c r="G2">
-        <v>0.0008100852836824839</v>
+        <v>0.0007987597116709543</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1484098054634799</v>
+        <v>0.1491787388642365</v>
       </c>
       <c r="M2">
-        <v>0.4333050099937736</v>
+        <v>0.4360376097092029</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.824817250820374</v>
+        <v>1.635055225024161</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.272264877177179</v>
+        <v>2.310673617832492</v>
       </c>
       <c r="C3">
-        <v>0.3968879812942703</v>
+        <v>0.4511759808239049</v>
       </c>
       <c r="D3">
-        <v>0.06131389517640429</v>
+        <v>0.04887915332358972</v>
       </c>
       <c r="E3">
-        <v>0.03942637540954386</v>
+        <v>0.04773578263672418</v>
       </c>
       <c r="F3">
-        <v>2.032489715191304</v>
+        <v>0.5242669244533928</v>
       </c>
       <c r="G3">
-        <v>0.000818378343316703</v>
+        <v>0.0008033643397036214</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1345127365948429</v>
+        <v>0.1352481232101681</v>
       </c>
       <c r="M3">
-        <v>0.3777921364465442</v>
+        <v>0.3796855118183444</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.673608620469579</v>
+        <v>1.582448055481507</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.060851354912529</v>
+        <v>2.097239200030515</v>
       </c>
       <c r="C4">
-        <v>0.3649522419548816</v>
+        <v>0.4266076320962782</v>
       </c>
       <c r="D4">
-        <v>0.06227908896424239</v>
+        <v>0.0462663714773015</v>
       </c>
       <c r="E4">
-        <v>0.03957470169460697</v>
+        <v>0.04927250476503986</v>
       </c>
       <c r="F4">
-        <v>1.91449790529829</v>
+        <v>0.5063555597754785</v>
       </c>
       <c r="G4">
-        <v>0.0008236072158146597</v>
+        <v>0.0008062829795607482</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.12621363092547</v>
+        <v>0.1268662503236087</v>
       </c>
       <c r="M4">
-        <v>0.3442908924585666</v>
+        <v>0.3452475433646924</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.584347759730903</v>
+        <v>1.555119781915323</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.975403497411321</v>
+        <v>2.010369571458625</v>
       </c>
       <c r="C5">
-        <v>0.3519773842830034</v>
+        <v>0.4166006589662175</v>
       </c>
       <c r="D5">
-        <v>0.0626879142586354</v>
+        <v>0.04520157960083537</v>
       </c>
       <c r="E5">
-        <v>0.03963785200110614</v>
+        <v>0.04991761106033976</v>
       </c>
       <c r="F5">
-        <v>1.867402323301093</v>
+        <v>0.4994069084742208</v>
       </c>
       <c r="G5">
-        <v>0.0008257739924128657</v>
+        <v>0.0008074958063953862</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1228851622556917</v>
+        <v>0.1234906633392754</v>
       </c>
       <c r="M5">
-        <v>0.3307679921113547</v>
+        <v>0.3312477895867048</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.548789170370057</v>
+        <v>1.545164966927103</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.961254553195772</v>
+        <v>1.995950332924451</v>
       </c>
       <c r="C6">
-        <v>0.3498248760439822</v>
+        <v>0.4149392115465105</v>
       </c>
       <c r="D6">
-        <v>0.06275670928115318</v>
+        <v>0.04502475933681183</v>
       </c>
       <c r="E6">
-        <v>0.03964849811991777</v>
+        <v>0.05002586234978224</v>
       </c>
       <c r="F6">
-        <v>1.859638838617528</v>
+        <v>0.4982736305182129</v>
       </c>
       <c r="G6">
-        <v>0.0008261359994896984</v>
+        <v>0.000807698625892768</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1223355560401345</v>
+        <v>0.12293248531752</v>
       </c>
       <c r="M6">
-        <v>0.3285298341341019</v>
+        <v>0.3289250024553283</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.542931623502668</v>
+        <v>1.543581406499328</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.059696256431323</v>
+        <v>2.096067261601036</v>
       </c>
       <c r="C7">
-        <v>0.3647771184823512</v>
+        <v>0.4264726590564578</v>
       </c>
       <c r="D7">
-        <v>0.06228454096319425</v>
+        <v>0.04625201196714102</v>
       </c>
       <c r="E7">
-        <v>0.03957554255928775</v>
+        <v>0.04928112883215874</v>
       </c>
       <c r="F7">
-        <v>1.913858894111371</v>
+        <v>0.5062604574167295</v>
       </c>
       <c r="G7">
-        <v>0.0008236362901522094</v>
+        <v>0.0008062992404980484</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1261685321692738</v>
+        <v>0.1268205675454936</v>
       </c>
       <c r="M7">
-        <v>0.3441080173864322</v>
+        <v>0.3450586088762506</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.583865007587278</v>
+        <v>1.554980831439309</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.500571304340156</v>
+        <v>2.538896785063002</v>
       </c>
       <c r="C8">
-        <v>0.4311420760217857</v>
+        <v>0.4774181470419876</v>
       </c>
       <c r="D8">
-        <v>0.06033959804866029</v>
+        <v>0.05166789583485354</v>
       </c>
       <c r="E8">
-        <v>0.0392776933733523</v>
+        <v>0.04616131920829314</v>
       </c>
       <c r="F8">
-        <v>2.162065081014788</v>
+        <v>0.544639294982936</v>
       </c>
       <c r="G8">
-        <v>0.0008129172847862742</v>
+        <v>0.0008003287179438644</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1435662556156316</v>
+        <v>0.1443379566509932</v>
       </c>
       <c r="M8">
-        <v>0.4140318516971604</v>
+        <v>0.4165694160737559</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.771883881775594</v>
+        <v>1.615841628386505</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.396132959352883</v>
+        <v>3.413673201582469</v>
       </c>
       <c r="C9">
-        <v>0.5637472111850741</v>
+        <v>0.5777376978103916</v>
       </c>
       <c r="D9">
-        <v>0.05709325991654168</v>
+        <v>0.06231232767724748</v>
       </c>
       <c r="E9">
-        <v>0.03878931616974191</v>
+        <v>0.04066225824639436</v>
       </c>
       <c r="F9">
-        <v>2.68849150308472</v>
+        <v>0.6327068410211325</v>
       </c>
       <c r="G9">
-        <v>0.0007929069218008582</v>
+        <v>0.0007893225500221955</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1798021038043558</v>
+        <v>0.1801991102637928</v>
       </c>
       <c r="M9">
-        <v>0.5566724877145788</v>
+        <v>0.5584287798827461</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.173233255897188</v>
+        <v>1.77794578378203</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.081444551593052</v>
+        <v>4.063095936116099</v>
       </c>
       <c r="C10">
-        <v>0.6638675388765591</v>
+        <v>0.6519488264139</v>
       </c>
       <c r="D10">
-        <v>0.05513093756410825</v>
+        <v>0.07017252749003688</v>
       </c>
       <c r="E10">
-        <v>0.03849921440375126</v>
+        <v>0.03701942020039639</v>
       </c>
       <c r="F10">
-        <v>3.107613291869598</v>
+        <v>0.7067904247553543</v>
       </c>
       <c r="G10">
-        <v>0.0007787018633606754</v>
+        <v>0.0007816299962900264</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2081280683208178</v>
+        <v>0.2076893055669302</v>
       </c>
       <c r="M10">
-        <v>0.666225041519013</v>
+        <v>0.6641595880628941</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.494590100955506</v>
+        <v>1.928020003790806</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.401322983874195</v>
+        <v>4.360685368178963</v>
       </c>
       <c r="C11">
-        <v>0.7103111110142208</v>
+        <v>0.6858818537788807</v>
       </c>
       <c r="D11">
-        <v>0.05435038108965529</v>
+        <v>0.0737632389094145</v>
       </c>
       <c r="E11">
-        <v>0.03838498964679404</v>
+        <v>0.03545321394300638</v>
       </c>
       <c r="F11">
-        <v>3.307403779013697</v>
+        <v>0.7429083724241394</v>
       </c>
       <c r="G11">
-        <v>0.0007723171442458722</v>
+        <v>0.0007782077742874317</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2214895540952995</v>
+        <v>0.2204972347024921</v>
       </c>
       <c r="M11">
-        <v>0.7174531951755867</v>
+        <v>0.7127116737034669</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.648227183083932</v>
+        <v>2.004202453098344</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.523829872596309</v>
+        <v>4.473747503766901</v>
       </c>
       <c r="C12">
-        <v>0.728057372948598</v>
+        <v>0.6987620176504379</v>
       </c>
       <c r="D12">
-        <v>0.05407295224327058</v>
+        <v>0.07512567840026207</v>
       </c>
       <c r="E12">
-        <v>0.03834457546657322</v>
+        <v>0.03487364148355399</v>
       </c>
       <c r="F12">
-        <v>3.384573338937912</v>
+        <v>0.7569671111178167</v>
       </c>
       <c r="G12">
-        <v>0.0007699076419559292</v>
+        <v>0.0007769222403591948</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2266276884158884</v>
+        <v>0.2253955850673037</v>
       </c>
       <c r="M12">
-        <v>0.7370863977759612</v>
+        <v>0.731173649757686</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.707639586998624</v>
+        <v>2.034296094456352</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.497381033595161</v>
+        <v>4.449380012468737</v>
       </c>
       <c r="C13">
-        <v>0.7242278007944662</v>
+        <v>0.6959865971194006</v>
       </c>
       <c r="D13">
-        <v>0.05413185855172742</v>
+        <v>0.07483212262424388</v>
       </c>
       <c r="E13">
-        <v>0.03835314792283073</v>
+        <v>0.03499785434909519</v>
       </c>
       <c r="F13">
-        <v>3.367882716888488</v>
+        <v>0.7539217634530644</v>
       </c>
       <c r="G13">
-        <v>0.0007704262537325144</v>
+        <v>0.0007771986529592559</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2255174380438518</v>
+        <v>0.2243384110303737</v>
       </c>
       <c r="M13">
-        <v>0.7328470296513174</v>
+        <v>0.7271939521744031</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.694786396953347</v>
+        <v>2.027757718727543</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.411372839594037</v>
+        <v>4.369979249242817</v>
       </c>
       <c r="C14">
-        <v>0.7117677319481572</v>
+        <v>0.6869408691637773</v>
       </c>
       <c r="D14">
-        <v>0.05432718033831208</v>
+        <v>0.07387526988254933</v>
       </c>
       <c r="E14">
-        <v>0.03838160599193774</v>
+        <v>0.03540525866846078</v>
       </c>
       <c r="F14">
-        <v>3.313720995706831</v>
+        <v>0.7440571392395015</v>
       </c>
       <c r="G14">
-        <v>0.000772118765342005</v>
+        <v>0.0007781018087038133</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2219106377988993</v>
+        <v>0.2208992289500173</v>
       </c>
       <c r="M14">
-        <v>0.7190635257391875</v>
+        <v>0.7142289551120768</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.653089353986999</v>
+        <v>2.0066526785495</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.358876134280763</v>
+        <v>4.321394244499913</v>
       </c>
       <c r="C15">
-        <v>0.704157257223585</v>
+        <v>0.681404236653691</v>
       </c>
       <c r="D15">
-        <v>0.054449249902774</v>
+        <v>0.0732895407066394</v>
       </c>
       <c r="E15">
-        <v>0.03839941668673741</v>
+        <v>0.03565657928167798</v>
       </c>
       <c r="F15">
-        <v>3.280748840917653</v>
+        <v>0.7380655337687614</v>
       </c>
       <c r="G15">
-        <v>0.0007731564613509854</v>
+        <v>0.0007786563485443105</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2197119009198474</v>
+        <v>0.2187990642192972</v>
       </c>
       <c r="M15">
-        <v>0.7106523188239606</v>
+        <v>0.7062978054132003</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.627714506246008</v>
+        <v>1.993890696466082</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.060720382285865</v>
+        <v>4.043696348977051</v>
       </c>
       <c r="C16">
-        <v>0.6608528827413807</v>
+        <v>0.6497351787559467</v>
       </c>
       <c r="D16">
-        <v>0.05518437132484166</v>
+        <v>0.06993821492383745</v>
       </c>
       <c r="E16">
-        <v>0.03850705988715575</v>
+        <v>0.03712364223616371</v>
       </c>
       <c r="F16">
-        <v>3.094756774812367</v>
+        <v>0.7044815208047197</v>
       </c>
       <c r="G16">
-        <v>0.0007791204379567261</v>
+        <v>0.0007818551398583546</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2072652659609275</v>
+        <v>0.2068587632054601</v>
       </c>
       <c r="M16">
-        <v>0.6629079840667558</v>
+        <v>0.6609966610941385</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.484712851642826</v>
+        <v>1.923209492203398</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.880032123366277</v>
+        <v>3.873933218722584</v>
       </c>
       <c r="C17">
-        <v>0.6345371536641835</v>
+        <v>0.6303555242858465</v>
       </c>
       <c r="D17">
-        <v>0.05566540952297316</v>
+        <v>0.06788651792916767</v>
       </c>
       <c r="E17">
-        <v>0.03857783059841413</v>
+        <v>0.03804723258303766</v>
       </c>
       <c r="F17">
-        <v>2.983129680042993</v>
+        <v>0.6845212784787691</v>
       </c>
       <c r="G17">
-        <v>0.0007827970052254147</v>
+        <v>0.0007838367694206415</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1997582688088784</v>
+        <v>0.1996145265096629</v>
       </c>
       <c r="M17">
-        <v>0.6339978036273308</v>
+        <v>0.6333298430591228</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.399003002176045</v>
+        <v>1.881949101860158</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.776856053863128</v>
+        <v>3.77648971578094</v>
       </c>
       <c r="C18">
-        <v>0.6194835813689679</v>
+        <v>0.6192248844109258</v>
       </c>
       <c r="D18">
-        <v>0.05595250455705525</v>
+        <v>0.06670781839424222</v>
       </c>
       <c r="E18">
-        <v>0.0386201862689084</v>
+        <v>0.03858698896244628</v>
       </c>
       <c r="F18">
-        <v>2.919770661472114</v>
+        <v>0.6732659743532707</v>
       </c>
       <c r="G18">
-        <v>0.0007849191295692393</v>
+        <v>0.0007849838583292927</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.195484565168087</v>
+        <v>0.1954759989764199</v>
       </c>
       <c r="M18">
-        <v>0.6174981896455094</v>
+        <v>0.617458701164928</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.35039536347675</v>
+        <v>1.858955114810698</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.742045516492624</v>
+        <v>3.743529572848843</v>
       </c>
       <c r="C19">
-        <v>0.6144000309531634</v>
+        <v>0.6154588354333441</v>
       </c>
       <c r="D19">
-        <v>0.05605144176838195</v>
+        <v>0.06630895253916691</v>
       </c>
       <c r="E19">
-        <v>0.03863480258218899</v>
+        <v>0.03877119361999093</v>
       </c>
       <c r="F19">
-        <v>2.898457983640895</v>
+        <v>0.6694928217384444</v>
       </c>
       <c r="G19">
-        <v>0.0007856390068405164</v>
+        <v>0.000785373518777718</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.194044855940362</v>
+        <v>0.1940794630551324</v>
       </c>
       <c r="M19">
-        <v>0.6119328513896178</v>
+        <v>0.6120919126190572</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.334051626756064</v>
+        <v>1.851293355289727</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.899187551357045</v>
+        <v>3.891983698542788</v>
       </c>
       <c r="C20">
-        <v>0.637329761829676</v>
+        <v>0.6324168252293134</v>
       </c>
       <c r="D20">
-        <v>0.05561311058519181</v>
+        <v>0.06810477770791579</v>
       </c>
       <c r="E20">
-        <v>0.0385701242065315</v>
+        <v>0.03794802873650371</v>
       </c>
       <c r="F20">
-        <v>2.994923654176688</v>
+        <v>0.6866225243036155</v>
       </c>
       <c r="G20">
-        <v>0.0007824048757784087</v>
+        <v>0.0007836250701609063</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2005527664735638</v>
+        <v>0.2003827394962912</v>
       </c>
       <c r="M20">
-        <v>0.6370617832273808</v>
+        <v>0.6362705912848128</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.408054400819069</v>
+        <v>1.886264222538358</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.436596401762245</v>
+        <v>4.393290589918138</v>
       </c>
       <c r="C21">
-        <v>0.7154229792689932</v>
+        <v>0.6895969461628795</v>
       </c>
       <c r="D21">
-        <v>0.05426929925238611</v>
+        <v>0.0741562424072626</v>
       </c>
       <c r="E21">
-        <v>0.03837316753254894</v>
+        <v>0.03528522367993481</v>
       </c>
       <c r="F21">
-        <v>3.329586809051222</v>
+        <v>0.7469439750293816</v>
       </c>
       <c r="G21">
-        <v>0.0007716214342820182</v>
+        <v>0.0007778362539613622</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2229678278305443</v>
+        <v>0.2219080502844264</v>
       </c>
       <c r="M21">
-        <v>0.7231054250600195</v>
+        <v>0.7180349246478883</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.665301914747616</v>
+        <v>2.012817054149679</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.795960664370114</v>
+        <v>4.723120656698654</v>
       </c>
       <c r="C22">
-        <v>0.7674057594265378</v>
+        <v>0.727147909603957</v>
       </c>
       <c r="D22">
-        <v>0.05349801779143704</v>
+        <v>0.07812734319351478</v>
       </c>
       <c r="E22">
-        <v>0.03826117241665683</v>
+        <v>0.03362393325784818</v>
       </c>
       <c r="F22">
-        <v>3.557241720966005</v>
+        <v>0.7886099661088082</v>
       </c>
       <c r="G22">
-        <v>0.00076462033197556</v>
+        <v>0.0007741131048106462</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2380801181079306</v>
+        <v>0.2362599088212249</v>
       </c>
       <c r="M22">
-        <v>0.7807242496037503</v>
+        <v>0.7719234752101727</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.840708452504913</v>
+        <v>2.102839646424712</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.603340810442319</v>
+        <v>4.546861813270539</v>
       </c>
       <c r="C23">
-        <v>0.7395641455498776</v>
+        <v>0.7070878138566457</v>
       </c>
       <c r="D23">
-        <v>0.05389912153475862</v>
+        <v>0.07600622177061211</v>
       </c>
       <c r="E23">
-        <v>0.03831930671601658</v>
+        <v>0.03450321309293969</v>
       </c>
       <c r="F23">
-        <v>3.43484729961628</v>
+        <v>0.7661548612116462</v>
       </c>
       <c r="G23">
-        <v>0.0007683537387069254</v>
+        <v>0.000776094961533903</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2299684134008118</v>
+        <v>0.2285724050541091</v>
       </c>
       <c r="M23">
-        <v>0.7498328840035882</v>
+        <v>0.7431170162108813</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.746365201936726</v>
+        <v>2.054086028400405</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.890525204811638</v>
+        <v>3.883822596510754</v>
       </c>
       <c r="C24">
-        <v>0.6360669901221456</v>
+        <v>0.6314848772724986</v>
       </c>
       <c r="D24">
-        <v>0.05563672225525096</v>
+        <v>0.06800609986012773</v>
       </c>
       <c r="E24">
-        <v>0.03857360308987134</v>
+        <v>0.03799285150560072</v>
       </c>
       <c r="F24">
-        <v>2.989589068861733</v>
+        <v>0.6856718680333813</v>
       </c>
       <c r="G24">
-        <v>0.0007825821312247371</v>
+        <v>0.0007837207549712642</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2001934434714343</v>
+        <v>0.2000353489024036</v>
       </c>
       <c r="M24">
-        <v>0.6356761829471509</v>
+        <v>0.6349409711866016</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.403960194496477</v>
+        <v>1.884311099530606</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.14972664824279</v>
+        <v>3.176060224261505</v>
       </c>
       <c r="C25">
-        <v>0.5274957083376819</v>
+        <v>0.5505293109352749</v>
       </c>
       <c r="D25">
-        <v>0.05790340294435126</v>
+        <v>0.0594277101106826</v>
       </c>
       <c r="E25">
-        <v>0.03891021360458469</v>
+        <v>0.04208165155629873</v>
       </c>
       <c r="F25">
-        <v>2.541042061505308</v>
+        <v>0.6073555228159435</v>
       </c>
       <c r="G25">
-        <v>0.0007982236945026596</v>
+        <v>0.0007922282641113769</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1697326950042708</v>
+        <v>0.1703140785106001</v>
       </c>
       <c r="M25">
-        <v>0.5173594235092764</v>
+        <v>0.519827107046531</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.060527266652556</v>
+        <v>1.729029323631465</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_62/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.659216408532814</v>
+        <v>2.68002386473762</v>
       </c>
       <c r="C2">
-        <v>0.4912413198530601</v>
+        <v>0.5593681542549973</v>
       </c>
       <c r="D2">
-        <v>0.05313609308040412</v>
+        <v>0.07532399448646743</v>
       </c>
       <c r="E2">
-        <v>0.04535718814374767</v>
+        <v>0.07282152115542551</v>
       </c>
       <c r="F2">
-        <v>0.5558501707677621</v>
+        <v>0.3281602128481396</v>
       </c>
       <c r="G2">
-        <v>0.0007987597116709543</v>
+        <v>0.2232287943717779</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.89564924440544E-05</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.211199647664742</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.1870490385381824</v>
       </c>
       <c r="L2">
-        <v>0.1491787388642365</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4360376097092029</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1910362053689241</v>
       </c>
       <c r="O2">
-        <v>1.635055225024161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.4423517477334613</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.8650569187813772</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.310673617832492</v>
+        <v>2.337243088493892</v>
       </c>
       <c r="C3">
-        <v>0.4511759808239049</v>
+        <v>0.511525015164608</v>
       </c>
       <c r="D3">
-        <v>0.04887915332358972</v>
+        <v>0.06655402083405448</v>
       </c>
       <c r="E3">
-        <v>0.04773578263672418</v>
+        <v>0.07217867156380786</v>
       </c>
       <c r="F3">
-        <v>0.5242669244533928</v>
+        <v>0.3098501013999737</v>
       </c>
       <c r="G3">
-        <v>0.0008033643397036214</v>
+        <v>0.2134576062820486</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0003244937615528576</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2117586617453782</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.1973246114331975</v>
       </c>
       <c r="L3">
-        <v>0.1352481232101681</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3796855118183444</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1728187496758053</v>
       </c>
       <c r="O3">
-        <v>1.582448055481507</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.3856478065010052</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.8451955163782543</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.097239200030515</v>
+        <v>2.126429296634967</v>
       </c>
       <c r="C4">
-        <v>0.4266076320962782</v>
+        <v>0.4820735465148971</v>
       </c>
       <c r="D4">
-        <v>0.0462663714773015</v>
+        <v>0.06115329471145969</v>
       </c>
       <c r="E4">
-        <v>0.04927250476503986</v>
+        <v>0.07177442265097056</v>
       </c>
       <c r="F4">
-        <v>0.5063555597754785</v>
+        <v>0.2993029597105092</v>
       </c>
       <c r="G4">
-        <v>0.0008062829795607482</v>
+        <v>0.2080761700313118</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0006774698676210722</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2125061231866354</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2041745732743756</v>
       </c>
       <c r="L4">
-        <v>0.1268662503236087</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3452475433646924</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1616250738957206</v>
       </c>
       <c r="O4">
-        <v>1.555119781915323</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.3507960730988628</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.8351489788867923</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.010369571458625</v>
+        <v>2.040421937887459</v>
       </c>
       <c r="C5">
-        <v>0.4166006589662175</v>
+        <v>0.4700515758298991</v>
       </c>
       <c r="D5">
-        <v>0.04520157960083537</v>
+        <v>0.05894812042588882</v>
       </c>
       <c r="E5">
-        <v>0.04991761106033976</v>
+        <v>0.07160712372110284</v>
       </c>
       <c r="F5">
-        <v>0.4994069084742208</v>
+        <v>0.2951711144794515</v>
       </c>
       <c r="G5">
-        <v>0.0008074958063953862</v>
+        <v>0.206030669679393</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0008620164943390352</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2129088404875645</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2070973726488798</v>
       </c>
       <c r="L5">
-        <v>0.1234906633392754</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3312477895867048</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1570602086322594</v>
       </c>
       <c r="O5">
-        <v>1.545164966927103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.3365824837981606</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.8315709302589198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.995950332924451</v>
+        <v>2.026134161183506</v>
       </c>
       <c r="C6">
-        <v>0.4149392115465105</v>
+        <v>0.4680540794386445</v>
       </c>
       <c r="D6">
-        <v>0.04502475933681183</v>
+        <v>0.05858168188798629</v>
       </c>
       <c r="E6">
-        <v>0.05002586234978224</v>
+        <v>0.07157918429696142</v>
       </c>
       <c r="F6">
-        <v>0.4982736305182129</v>
+        <v>0.2944948161139749</v>
       </c>
       <c r="G6">
-        <v>0.000807698625892768</v>
+        <v>0.205699696448292</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0008950495047698181</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2129815370966952</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2075905055410914</v>
       </c>
       <c r="L6">
-        <v>0.12293248531752</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3289250024553283</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1563019764038529</v>
       </c>
       <c r="O6">
-        <v>1.543581406499328</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3342215845788559</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.8310072713241112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.096067261601036</v>
+        <v>2.125269787777881</v>
       </c>
       <c r="C7">
-        <v>0.4264726590564578</v>
+        <v>0.4819114975892376</v>
       </c>
       <c r="D7">
-        <v>0.04625201196714102</v>
+        <v>0.06112357293134352</v>
       </c>
       <c r="E7">
-        <v>0.04928112883215874</v>
+        <v>0.07177217699492311</v>
       </c>
       <c r="F7">
-        <v>0.5062604574167295</v>
+        <v>0.2992465744531856</v>
       </c>
       <c r="G7">
-        <v>0.0008062992404980484</v>
+        <v>0.2080479968515832</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0006797970555115773</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2125111616457289</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.20421346513751</v>
       </c>
       <c r="L7">
-        <v>0.1268205675454936</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3450586088762506</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1615635257969075</v>
       </c>
       <c r="O7">
-        <v>1.554980831439309</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.3506044321041131</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.8350986661922235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.538896785063002</v>
+        <v>2.561896865854692</v>
       </c>
       <c r="C8">
-        <v>0.4774181470419876</v>
+        <v>0.5428867168104716</v>
       </c>
       <c r="D8">
-        <v>0.05166789583485354</v>
+        <v>0.07230320594099737</v>
       </c>
       <c r="E8">
-        <v>0.04616131920829314</v>
+        <v>0.07260174310483991</v>
       </c>
       <c r="F8">
-        <v>0.544639294982936</v>
+        <v>0.3216972570270542</v>
       </c>
       <c r="G8">
-        <v>0.0008003287179438644</v>
+        <v>0.219726518044709</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>9.377744799743404E-05</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2113063354792217</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.1904770236153883</v>
       </c>
       <c r="L8">
-        <v>0.1443379566509932</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4165694160737559</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1847556876024257</v>
       </c>
       <c r="O8">
-        <v>1.615841628386505</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.4228060691183373</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.8577479128997112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.413673201582469</v>
+        <v>3.416028711684987</v>
       </c>
       <c r="C9">
-        <v>0.5777376978103916</v>
+        <v>0.6619288074885219</v>
       </c>
       <c r="D9">
-        <v>0.06231232767724748</v>
+        <v>0.09411696948787807</v>
       </c>
       <c r="E9">
-        <v>0.04066225824639436</v>
+        <v>0.07416082913632138</v>
       </c>
       <c r="F9">
-        <v>0.6327068410211325</v>
+        <v>0.3716482168494153</v>
       </c>
       <c r="G9">
-        <v>0.0007893225500221955</v>
+        <v>0.2479068148218104</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0004183489960315478</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2123167021940091</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.1680437731113322</v>
       </c>
       <c r="L9">
-        <v>0.1801991102637928</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5584287798827461</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2302356781478636</v>
       </c>
       <c r="O9">
-        <v>1.77794578378203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.5642343470181004</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.9203509017870601</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.063095936116099</v>
+        <v>4.048676456897795</v>
       </c>
       <c r="C10">
-        <v>0.6519488264139</v>
+        <v>0.7589629991606444</v>
       </c>
       <c r="D10">
-        <v>0.07017252749003688</v>
+        <v>0.1112409399459011</v>
       </c>
       <c r="E10">
-        <v>0.03701942020039639</v>
+        <v>0.0750964054584824</v>
       </c>
       <c r="F10">
-        <v>0.7067904247553543</v>
+        <v>0.4066172747459404</v>
       </c>
       <c r="G10">
-        <v>0.0007816299962900264</v>
+        <v>0.2667714725383306</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.001811470730667786</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2124735635936474</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.1515731574873591</v>
       </c>
       <c r="L10">
-        <v>0.2076893055669302</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6641595880628941</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2521545561370431</v>
       </c>
       <c r="O10">
-        <v>1.928020003790806</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.6609634364167576</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.9611793014869505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.360685368178963</v>
+        <v>4.384999031260861</v>
       </c>
       <c r="C11">
-        <v>0.6858818537788807</v>
+        <v>0.8943150748297342</v>
       </c>
       <c r="D11">
-        <v>0.0737632389094145</v>
+        <v>0.129445827352086</v>
       </c>
       <c r="E11">
-        <v>0.03545321394300638</v>
+        <v>0.08117255098041554</v>
       </c>
       <c r="F11">
-        <v>0.7429083724241394</v>
+        <v>0.372916968540288</v>
       </c>
       <c r="G11">
-        <v>0.0007782077742874317</v>
+        <v>0.229364426202423</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02043210730592548</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1888188362058472</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.1215933441656816</v>
       </c>
       <c r="L11">
-        <v>0.2204972347024921</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.7127116737034669</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1734600436450151</v>
       </c>
       <c r="O11">
-        <v>2.004202453098344</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.6421379552971658</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.8325623033116472</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.473747503766901</v>
+        <v>4.537462298777598</v>
       </c>
       <c r="C12">
-        <v>0.6987620176504379</v>
+        <v>0.9965573590156396</v>
       </c>
       <c r="D12">
-        <v>0.07512567840026207</v>
+        <v>0.1419281209243621</v>
       </c>
       <c r="E12">
-        <v>0.03487364148355399</v>
+        <v>0.09587107453979549</v>
       </c>
       <c r="F12">
-        <v>0.7569671111178167</v>
+        <v>0.3377763808249199</v>
       </c>
       <c r="G12">
-        <v>0.0007769222403591948</v>
+        <v>0.1956517434713305</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05899314171063708</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.169532121510592</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.1036566948036182</v>
       </c>
       <c r="L12">
-        <v>0.2253955850673037</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.731173649757686</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1185114060083308</v>
       </c>
       <c r="O12">
-        <v>2.034296094456352</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.606045643824686</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.7207891758335592</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.449380012468737</v>
+        <v>4.555649743106244</v>
       </c>
       <c r="C13">
-        <v>0.6959865971194006</v>
+        <v>1.077949687666774</v>
       </c>
       <c r="D13">
-        <v>0.07483212262424388</v>
+        <v>0.1505925562250212</v>
       </c>
       <c r="E13">
-        <v>0.03499785434909519</v>
+        <v>0.1176321237981703</v>
       </c>
       <c r="F13">
-        <v>0.7539217634530644</v>
+        <v>0.299247383228078</v>
       </c>
       <c r="G13">
-        <v>0.0007771986529592559</v>
+        <v>0.1625749276298549</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1144711348666334</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1523181003576681</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.09350277337150814</v>
       </c>
       <c r="L13">
-        <v>0.2243384110303737</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7271939521744031</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.07872241129140889</v>
       </c>
       <c r="O13">
-        <v>2.027757718727543</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.5548578082752655</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.6146044340795669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.369979249242817</v>
+        <v>4.507429750528672</v>
       </c>
       <c r="C14">
-        <v>0.6869408691637773</v>
+        <v>1.125760177951577</v>
       </c>
       <c r="D14">
-        <v>0.07387526988254933</v>
+        <v>0.1549405779400672</v>
       </c>
       <c r="E14">
-        <v>0.03540525866846078</v>
+        <v>0.1370738298714329</v>
       </c>
       <c r="F14">
-        <v>0.7440571392395015</v>
+        <v>0.2710754382841287</v>
       </c>
       <c r="G14">
-        <v>0.0007781018087038133</v>
+        <v>0.1401379937143759</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1635755485068557</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1413863969062774</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.0903847972540055</v>
       </c>
       <c r="L14">
-        <v>0.2208992289500173</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.7142289551120768</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.06004872762182245</v>
       </c>
       <c r="O14">
-        <v>2.0066526785495</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.5125987520077047</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.5440900338398507</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.321394244499913</v>
+        <v>4.466616695687719</v>
       </c>
       <c r="C15">
-        <v>0.681404236653691</v>
+        <v>1.131604591292302</v>
       </c>
       <c r="D15">
-        <v>0.0732895407066394</v>
+        <v>0.1550653409589273</v>
       </c>
       <c r="E15">
-        <v>0.03565657928167798</v>
+        <v>0.1419545016207024</v>
       </c>
       <c r="F15">
-        <v>0.7380655337687614</v>
+        <v>0.2634278417316693</v>
       </c>
       <c r="G15">
-        <v>0.0007786563485443105</v>
+        <v>0.1345815958331613</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1759696642142785</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1390747564256785</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.09073135749124495</v>
       </c>
       <c r="L15">
-        <v>0.2187990642192972</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7062978054132003</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.05667049580163663</v>
       </c>
       <c r="O15">
-        <v>1.993890696466082</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.4991590681589386</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.5274336475252568</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.043696348977051</v>
+        <v>4.187966193377974</v>
       </c>
       <c r="C16">
-        <v>0.6497351787559467</v>
+        <v>1.069741469579441</v>
       </c>
       <c r="D16">
-        <v>0.06993821492383745</v>
+        <v>0.1455743393954378</v>
       </c>
       <c r="E16">
-        <v>0.03712364223616371</v>
+        <v>0.13615387766799</v>
       </c>
       <c r="F16">
-        <v>0.7044815208047197</v>
+        <v>0.2559014885044633</v>
       </c>
       <c r="G16">
-        <v>0.0007818551398583546</v>
+        <v>0.1328051448913357</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.162617259980351</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1421611816031998</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.09878280328744804</v>
       </c>
       <c r="L16">
-        <v>0.2068587632054601</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6609966610941385</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.05644013406452864</v>
       </c>
       <c r="O16">
-        <v>1.923209492203398</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.4693730171314101</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.5299154023401087</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.873933218722584</v>
+        <v>4.000586014672422</v>
       </c>
       <c r="C17">
-        <v>0.6303555242858465</v>
+        <v>0.9969674166737263</v>
       </c>
       <c r="D17">
-        <v>0.06788651792916767</v>
+        <v>0.1360049150458593</v>
       </c>
       <c r="E17">
-        <v>0.03804723258303766</v>
+        <v>0.1207351992316426</v>
       </c>
       <c r="F17">
-        <v>0.6845212784787691</v>
+        <v>0.2651494375095069</v>
       </c>
       <c r="G17">
-        <v>0.0007838367694206415</v>
+        <v>0.1433275827963314</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.124521815096557</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1503675900443255</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.1065422429060057</v>
       </c>
       <c r="L17">
-        <v>0.1996145265096629</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6333298430591228</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.06455916711305321</v>
       </c>
       <c r="O17">
-        <v>1.881949101860158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.468710181136565</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.5692726670486508</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.77648971578094</v>
+        <v>3.870719883259312</v>
       </c>
       <c r="C18">
-        <v>0.6192248844109258</v>
+        <v>0.9099980970672163</v>
       </c>
       <c r="D18">
-        <v>0.06670781839424222</v>
+        <v>0.1255603227718041</v>
       </c>
       <c r="E18">
-        <v>0.03858698896244628</v>
+        <v>0.09985918573518227</v>
       </c>
       <c r="F18">
-        <v>0.6732659743532707</v>
+        <v>0.2902856464640706</v>
       </c>
       <c r="G18">
-        <v>0.0007849838583292927</v>
+        <v>0.166581063407726</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.0716277921408448</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1642902583947645</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1167812180717922</v>
       </c>
       <c r="L18">
-        <v>0.1954759989764199</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.617458701164928</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.08879483880983585</v>
       </c>
       <c r="O18">
-        <v>1.858955114810698</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.4933715289557341</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.6476472384281209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.743529572848843</v>
+        <v>3.797165091167187</v>
       </c>
       <c r="C19">
-        <v>0.6154588354333441</v>
+        <v>0.8225338906046318</v>
       </c>
       <c r="D19">
-        <v>0.06630895253916691</v>
+        <v>0.1155390661707401</v>
       </c>
       <c r="E19">
-        <v>0.03877119361999093</v>
+        <v>0.08272200474620028</v>
       </c>
       <c r="F19">
-        <v>0.6694928217384444</v>
+        <v>0.3274216185895327</v>
       </c>
       <c r="G19">
-        <v>0.000785373518777718</v>
+        <v>0.2001700332569385</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02657061891233781</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.182547166382264</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1311344654185245</v>
       </c>
       <c r="L19">
-        <v>0.1940794630551324</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6120919126190572</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1363499676039481</v>
       </c>
       <c r="O19">
-        <v>1.851293355289727</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.5374832803150866</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.7570630109252079</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.891983698542788</v>
+        <v>3.882753893894801</v>
       </c>
       <c r="C20">
-        <v>0.6324168252293134</v>
+        <v>0.7338651460946437</v>
       </c>
       <c r="D20">
-        <v>0.06810477770791579</v>
+        <v>0.1067905291342441</v>
       </c>
       <c r="E20">
-        <v>0.03794802873650371</v>
+        <v>0.07482833066358763</v>
       </c>
       <c r="F20">
-        <v>0.6866225243036155</v>
+        <v>0.3968759926018848</v>
       </c>
       <c r="G20">
-        <v>0.0007836250701609063</v>
+        <v>0.2613022261055917</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.001350017695706196</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2121425924441169</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.1555365164693416</v>
       </c>
       <c r="L20">
-        <v>0.2003827394962912</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6362705912848128</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2459034629225982</v>
       </c>
       <c r="O20">
-        <v>1.886264222538358</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.6352626156658445</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.9487608400048941</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.393290589918138</v>
+        <v>4.360099254405952</v>
       </c>
       <c r="C21">
-        <v>0.6895969461628795</v>
+        <v>0.7931963731790006</v>
       </c>
       <c r="D21">
-        <v>0.0741562424072626</v>
+        <v>0.1181680143234445</v>
       </c>
       <c r="E21">
-        <v>0.03528522367993481</v>
+        <v>0.075836114501105</v>
       </c>
       <c r="F21">
-        <v>0.7469439750293816</v>
+        <v>0.4344008881042356</v>
       </c>
       <c r="G21">
-        <v>0.0007778362539613622</v>
+        <v>0.2858007751969751</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.002679860943094414</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2175247057720497</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.1486783724885488</v>
       </c>
       <c r="L21">
-        <v>0.2219080502844264</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.7180349246478883</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2807079825503394</v>
       </c>
       <c r="O21">
-        <v>2.012817054149679</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.720794229557761</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.012345956889448</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.723120656698654</v>
+        <v>4.675103554816019</v>
       </c>
       <c r="C22">
-        <v>0.727147909603957</v>
+        <v>0.8369324856661535</v>
       </c>
       <c r="D22">
-        <v>0.07812734319351478</v>
+        <v>0.126182464099557</v>
       </c>
       <c r="E22">
-        <v>0.03362393325784818</v>
+        <v>0.07639091577571927</v>
       </c>
       <c r="F22">
-        <v>0.7886099661088082</v>
+        <v>0.4568622050801139</v>
       </c>
       <c r="G22">
-        <v>0.0007741131048106462</v>
+        <v>0.299820609285149</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.00382913644124816</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2200692789093921</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.1432940312821085</v>
       </c>
       <c r="L22">
-        <v>0.2362599088212249</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7719234752101727</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.2975999869819645</v>
       </c>
       <c r="O22">
-        <v>2.102839646424712</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.7730816186089271</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.047635889642294</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.546861813270539</v>
+        <v>4.506944754765357</v>
       </c>
       <c r="C23">
-        <v>0.7070878138566457</v>
+        <v>0.8135885497695767</v>
       </c>
       <c r="D23">
-        <v>0.07600622177061211</v>
+        <v>0.1219046939141748</v>
       </c>
       <c r="E23">
-        <v>0.03450321309293969</v>
+        <v>0.07609483986197457</v>
       </c>
       <c r="F23">
-        <v>0.7661548612116462</v>
+        <v>0.4447823410439256</v>
       </c>
       <c r="G23">
-        <v>0.000776094961533903</v>
+        <v>0.2922553034168942</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.00319219153020095</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2186640817024426</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.1461056661564566</v>
       </c>
       <c r="L23">
-        <v>0.2285724050541091</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7431170162108813</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2885792729286152</v>
       </c>
       <c r="O23">
-        <v>2.054086028400405</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.7451661820704985</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.028527743209168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.883822596510754</v>
+        <v>3.870717025633837</v>
       </c>
       <c r="C24">
-        <v>0.6314848772724986</v>
+        <v>0.725187789398575</v>
       </c>
       <c r="D24">
-        <v>0.06800609986012773</v>
+        <v>0.1057070345420499</v>
       </c>
       <c r="E24">
-        <v>0.03799285150560072</v>
+        <v>0.07497124160030766</v>
       </c>
       <c r="F24">
-        <v>0.6856718680333813</v>
+        <v>0.4009769893574031</v>
       </c>
       <c r="G24">
-        <v>0.0007837207549712642</v>
+        <v>0.265352078647588</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.001277731849241848</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2143473961562279</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.158080473300048</v>
       </c>
       <c r="L24">
-        <v>0.2000353489024036</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6349409711866016</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2545162826380079</v>
       </c>
       <c r="O24">
-        <v>1.884311099530606</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.6396089655901704</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.9619579087777907</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.176060224261505</v>
+        <v>3.185085807016605</v>
       </c>
       <c r="C25">
-        <v>0.5505293109352749</v>
+        <v>0.6297701974574466</v>
       </c>
       <c r="D25">
-        <v>0.0594277101106826</v>
+        <v>0.0882248535020338</v>
       </c>
       <c r="E25">
-        <v>0.04208165155629873</v>
+        <v>0.07374512679980288</v>
       </c>
       <c r="F25">
-        <v>0.6073555228159435</v>
+        <v>0.3574412432057628</v>
       </c>
       <c r="G25">
-        <v>0.0007922282641113769</v>
+        <v>0.2396636418092655</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0001564513106663279</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2116581670944981</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.1735995704884079</v>
       </c>
       <c r="L25">
-        <v>0.1703140785106001</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.519827107046531</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2179224345834569</v>
       </c>
       <c r="O25">
-        <v>1.729029323631465</v>
+        <v>0.5259724260118759</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.9013018617511506</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_62/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.68002386473762</v>
+        <v>2.682276642366048</v>
       </c>
       <c r="C2">
-        <v>0.5593681542549973</v>
+        <v>0.5655443207508597</v>
       </c>
       <c r="D2">
-        <v>0.07532399448646743</v>
+        <v>0.07708254498820111</v>
       </c>
       <c r="E2">
-        <v>0.07282152115542551</v>
+        <v>0.07079332158855134</v>
       </c>
       <c r="F2">
-        <v>0.3281602128481396</v>
+        <v>0.3185475798164248</v>
       </c>
       <c r="G2">
-        <v>0.2232287943717779</v>
+        <v>0.197396078064088</v>
       </c>
       <c r="H2">
-        <v>2.89564924440544E-05</v>
+        <v>1.52235354853314E-05</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.211199647664742</v>
+        <v>0.2469134808316582</v>
       </c>
       <c r="K2">
-        <v>0.1870490385381824</v>
+        <v>0.1777240335661734</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1107918509614834</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.03479878800416092</v>
       </c>
       <c r="N2">
-        <v>0.1910362053689241</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.4423517477334613</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1946987252037715</v>
       </c>
       <c r="Q2">
-        <v>0.8650569187813772</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4436303607671661</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.8356932612003902</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.337243088493892</v>
+        <v>2.341060673394679</v>
       </c>
       <c r="C3">
-        <v>0.511525015164608</v>
+        <v>0.5096416734509148</v>
       </c>
       <c r="D3">
-        <v>0.06655402083405448</v>
+        <v>0.06764363909147875</v>
       </c>
       <c r="E3">
-        <v>0.07217867156380786</v>
+        <v>0.07028289569248747</v>
       </c>
       <c r="F3">
-        <v>0.3098501013999737</v>
+        <v>0.3023093715197689</v>
       </c>
       <c r="G3">
-        <v>0.2134576062820486</v>
+        <v>0.1892413688323487</v>
       </c>
       <c r="H3">
-        <v>0.0003244937615528576</v>
+        <v>0.0002419317752846428</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2117586617453782</v>
+        <v>0.2465886038927607</v>
       </c>
       <c r="K3">
-        <v>0.1973246114331975</v>
+        <v>0.1879162500793754</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1168851884262576</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.03734266528969954</v>
       </c>
       <c r="N3">
-        <v>0.1728187496758053</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.3856478065010052</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.176614845782737</v>
       </c>
       <c r="Q3">
-        <v>0.8451955163782543</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3866653578819808</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.8209927007898585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.126429296634967</v>
+        <v>2.131104368258661</v>
       </c>
       <c r="C4">
-        <v>0.4820735465148971</v>
+        <v>0.4753887942373183</v>
       </c>
       <c r="D4">
-        <v>0.06115329471145969</v>
+        <v>0.06184546281812686</v>
       </c>
       <c r="E4">
-        <v>0.07177442265097056</v>
+        <v>0.06996484664834113</v>
       </c>
       <c r="F4">
-        <v>0.2993029597105092</v>
+        <v>0.2929054949413228</v>
       </c>
       <c r="G4">
-        <v>0.2080761700313118</v>
+        <v>0.1848197313357218</v>
       </c>
       <c r="H4">
-        <v>0.0006774698676210722</v>
+        <v>0.0005266482592346522</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2125061231866354</v>
+        <v>0.2466082090829715</v>
       </c>
       <c r="K4">
-        <v>0.2041745732743756</v>
+        <v>0.1946206638695962</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1209288780027382</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.03944879342824725</v>
       </c>
       <c r="N4">
-        <v>0.1616250738957206</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.3507960730988628</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1655179528669635</v>
       </c>
       <c r="Q4">
-        <v>0.8351489788867923</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3516429362697906</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.8137039989995287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.040421937887459</v>
+        <v>2.04542350227041</v>
       </c>
       <c r="C5">
-        <v>0.4700515758298991</v>
+        <v>0.4614474669100161</v>
       </c>
       <c r="D5">
-        <v>0.05894812042588882</v>
+        <v>0.05948167286874195</v>
       </c>
       <c r="E5">
-        <v>0.07160712372110284</v>
+        <v>0.06983394506693469</v>
       </c>
       <c r="F5">
-        <v>0.2951711144794515</v>
+        <v>0.2892082912485066</v>
       </c>
       <c r="G5">
-        <v>0.206030669679393</v>
+        <v>0.1831567758375314</v>
       </c>
       <c r="H5">
-        <v>0.0008620164943390352</v>
+        <v>0.0006772171319011644</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2129088404875645</v>
+        <v>0.246669563507055</v>
       </c>
       <c r="K5">
-        <v>0.2070973726488798</v>
+        <v>0.1974613337962499</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1226527565894902</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.04044116624956384</v>
       </c>
       <c r="N5">
-        <v>0.1570602086322594</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.3365824837981606</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1609965043142907</v>
       </c>
       <c r="Q5">
-        <v>0.8315709302589198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.337357661463038</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.8111501663270531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.026134161183506</v>
+        <v>2.031188640318533</v>
       </c>
       <c r="C6">
-        <v>0.4680540794386445</v>
+        <v>0.4591335206713438</v>
       </c>
       <c r="D6">
-        <v>0.05858168188798629</v>
+        <v>0.0590890988534909</v>
       </c>
       <c r="E6">
-        <v>0.07157918429696142</v>
+        <v>0.06981212726974967</v>
       </c>
       <c r="F6">
-        <v>0.2944948161139749</v>
+        <v>0.2886023102664197</v>
       </c>
       <c r="G6">
-        <v>0.205699696448292</v>
+        <v>0.1828887951669813</v>
       </c>
       <c r="H6">
-        <v>0.0008950495047698181</v>
+        <v>0.0007042467062774449</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2129815370966952</v>
+        <v>0.2466829252056968</v>
       </c>
       <c r="K6">
-        <v>0.2075905055410914</v>
+        <v>0.197939476930248</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1229435988464633</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.04061397100797004</v>
       </c>
       <c r="N6">
-        <v>0.1563019764038529</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.3342215845788559</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1602457291067694</v>
       </c>
       <c r="Q6">
-        <v>0.8310072713241112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3349847441696099</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.8107506654147159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.125269787777881</v>
+        <v>2.129922903700503</v>
       </c>
       <c r="C7">
-        <v>0.4819114975892376</v>
+        <v>0.474831587101761</v>
       </c>
       <c r="D7">
-        <v>0.06112357293134352</v>
+        <v>0.06194749819641032</v>
       </c>
       <c r="E7">
-        <v>0.07177217699492311</v>
+        <v>0.06994780520782784</v>
       </c>
       <c r="F7">
-        <v>0.2992465744531856</v>
+        <v>0.2921599235359267</v>
       </c>
       <c r="G7">
-        <v>0.2080479968515832</v>
+        <v>0.1869247437497137</v>
       </c>
       <c r="H7">
-        <v>0.0006797970555115773</v>
+        <v>0.0005299347738049187</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2125111616457289</v>
+        <v>0.2433027964338734</v>
       </c>
       <c r="K7">
-        <v>0.20421346513751</v>
+        <v>0.1944245614946514</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1208108948672724</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.03942330721660747</v>
       </c>
       <c r="N7">
-        <v>0.1615635257969075</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.3506044321041131</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1654176725706265</v>
       </c>
       <c r="Q7">
-        <v>0.8350986661922235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3514326016441487</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.8115717272680314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.561896865854692</v>
+        <v>2.564622647994156</v>
       </c>
       <c r="C8">
-        <v>0.5428867168104716</v>
+        <v>0.5450149019125661</v>
       </c>
       <c r="D8">
-        <v>0.07230320594099737</v>
+        <v>0.07428085206370127</v>
       </c>
       <c r="E8">
-        <v>0.07260174310483991</v>
+        <v>0.07057073185048779</v>
       </c>
       <c r="F8">
-        <v>0.3216972570270542</v>
+        <v>0.3105245135776542</v>
       </c>
       <c r="G8">
-        <v>0.219726518044709</v>
+        <v>0.2015787621747762</v>
       </c>
       <c r="H8">
-        <v>9.377744799743404E-05</v>
+        <v>6.341268924603405E-05</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2113063354792217</v>
+        <v>0.2360564728305263</v>
       </c>
       <c r="K8">
-        <v>0.1904770236153883</v>
+        <v>0.1803975698639046</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1124353085630165</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.03538429650943709</v>
       </c>
       <c r="N8">
-        <v>0.1847556876024257</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.4228060691183373</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.188332614647436</v>
       </c>
       <c r="Q8">
-        <v>0.8577479128997112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4239360922884003</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.823344922277613</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.416028711684987</v>
+        <v>3.414102532368929</v>
       </c>
       <c r="C9">
-        <v>0.6619288074885219</v>
+        <v>0.6846091834213723</v>
       </c>
       <c r="D9">
-        <v>0.09411696948787807</v>
+        <v>0.09797484958880176</v>
       </c>
       <c r="E9">
-        <v>0.07416082913632138</v>
+        <v>0.07181660665524014</v>
       </c>
       <c r="F9">
-        <v>0.3716482168494153</v>
+        <v>0.3539072392428935</v>
       </c>
       <c r="G9">
-        <v>0.2479068148218104</v>
+        <v>0.2275123018993028</v>
       </c>
       <c r="H9">
-        <v>0.0004183489960315478</v>
+        <v>0.0003923728499363177</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2123167021940091</v>
+        <v>0.2352983169963707</v>
       </c>
       <c r="K9">
-        <v>0.1680437731113322</v>
+        <v>0.1574532242821949</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.09892854114736771</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.03204349675882412</v>
       </c>
       <c r="N9">
-        <v>0.2302356781478636</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.5642343470181004</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2335160673284378</v>
       </c>
       <c r="Q9">
-        <v>0.9203509017870601</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.5659145468458959</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.8687875771917106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.048676456897795</v>
+        <v>4.042469045620635</v>
       </c>
       <c r="C10">
-        <v>0.7589629991606444</v>
+        <v>0.7942678324572228</v>
       </c>
       <c r="D10">
-        <v>0.1112409399459011</v>
+        <v>0.1172898599370171</v>
       </c>
       <c r="E10">
-        <v>0.0750964054584824</v>
+        <v>0.07263814484306463</v>
       </c>
       <c r="F10">
-        <v>0.4066172747459404</v>
+        <v>0.3800764312637241</v>
       </c>
       <c r="G10">
-        <v>0.2667714725383306</v>
+        <v>0.2581057740212245</v>
       </c>
       <c r="H10">
-        <v>0.001811470730667786</v>
+        <v>0.001622391554247926</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2124735635936474</v>
+        <v>0.2163468657072016</v>
       </c>
       <c r="K10">
-        <v>0.1515731574873591</v>
+        <v>0.1395735548891128</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.08923983900337884</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.03101162659825896</v>
       </c>
       <c r="N10">
-        <v>0.2521545561370431</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.6609634364167576</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2548581918403272</v>
       </c>
       <c r="Q10">
-        <v>0.9611793014869505</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.6627641427006949</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.8853566061008706</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.384999031260861</v>
+        <v>4.377270341345366</v>
       </c>
       <c r="C11">
-        <v>0.8943150748297342</v>
+        <v>0.9220391546913618</v>
       </c>
       <c r="D11">
-        <v>0.129445827352086</v>
+        <v>0.1372882341246253</v>
       </c>
       <c r="E11">
-        <v>0.08117255098041554</v>
+        <v>0.07960013192437643</v>
       </c>
       <c r="F11">
-        <v>0.372916968540288</v>
+        <v>0.3425975388343971</v>
       </c>
       <c r="G11">
-        <v>0.229364426202423</v>
+        <v>0.2521185935009456</v>
       </c>
       <c r="H11">
-        <v>0.02043210730592548</v>
+        <v>0.02017804922953914</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1888188362058472</v>
+        <v>0.1677240392299026</v>
       </c>
       <c r="K11">
-        <v>0.1215933441656816</v>
+        <v>0.1131498216211089</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.07932760735472266</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.02254123136578023</v>
       </c>
       <c r="N11">
-        <v>0.1734600436450151</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6421379552971658</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1742045936621395</v>
       </c>
       <c r="Q11">
-        <v>0.8325623033116472</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6431993176519128</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.7494616246110581</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.537462298777598</v>
+        <v>4.529476600576686</v>
       </c>
       <c r="C12">
-        <v>0.9965573590156396</v>
+        <v>1.014629113902743</v>
       </c>
       <c r="D12">
-        <v>0.1419281209243621</v>
+        <v>0.1502901303947368</v>
       </c>
       <c r="E12">
-        <v>0.09587107453979549</v>
+        <v>0.09457727557486706</v>
       </c>
       <c r="F12">
-        <v>0.3377763808249199</v>
+        <v>0.3087883032593339</v>
       </c>
       <c r="G12">
-        <v>0.1956517434713305</v>
+        <v>0.2323598556661182</v>
       </c>
       <c r="H12">
-        <v>0.05899314171063708</v>
+        <v>0.05872831980193638</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.169532121510592</v>
+        <v>0.1452518111114571</v>
       </c>
       <c r="K12">
-        <v>0.1036566948036182</v>
+        <v>0.09900538632065725</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.07490642229266697</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.01687862839130716</v>
       </c>
       <c r="N12">
-        <v>0.1185114060083308</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.606045643824686</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1181787098604588</v>
       </c>
       <c r="Q12">
-        <v>0.7207891758335592</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.6065627587207842</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.6446145370520497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.555649743106244</v>
+        <v>4.548485343936591</v>
       </c>
       <c r="C13">
-        <v>1.077949687666774</v>
+        <v>1.085638402151233</v>
       </c>
       <c r="D13">
-        <v>0.1505925562250212</v>
+        <v>0.1579577529510487</v>
       </c>
       <c r="E13">
-        <v>0.1176321237981703</v>
+        <v>0.116276968120534</v>
       </c>
       <c r="F13">
-        <v>0.299247383228078</v>
+        <v>0.2766501254648901</v>
       </c>
       <c r="G13">
-        <v>0.1625749276298549</v>
+        <v>0.1964081644174982</v>
       </c>
       <c r="H13">
-        <v>0.1144711348666334</v>
+        <v>0.1142407794314835</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1523181003576681</v>
+        <v>0.1386353435441521</v>
       </c>
       <c r="K13">
-        <v>0.09350277337150814</v>
+        <v>0.0924893840371741</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.0733460419285743</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.01324558768992645</v>
       </c>
       <c r="N13">
-        <v>0.07872241129140889</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.5548578082752655</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.07792309665618546</v>
       </c>
       <c r="Q13">
-        <v>0.6146044340795669</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.5549874143446019</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.558526527006947</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.507429750528672</v>
+        <v>4.501308886397396</v>
       </c>
       <c r="C14">
-        <v>1.125760177951577</v>
+        <v>1.125786685324186</v>
       </c>
       <c r="D14">
-        <v>0.1549405779400672</v>
+        <v>0.1608795070959985</v>
       </c>
       <c r="E14">
-        <v>0.1370738298714329</v>
+        <v>0.1354932168260738</v>
       </c>
       <c r="F14">
-        <v>0.2710754382841287</v>
+        <v>0.2547761547875567</v>
       </c>
       <c r="G14">
-        <v>0.1401379937143759</v>
+        <v>0.1658549641738531</v>
       </c>
       <c r="H14">
-        <v>0.1635755485068557</v>
+        <v>0.1633845676023213</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1413863969062774</v>
+        <v>0.1392504312545633</v>
       </c>
       <c r="K14">
-        <v>0.0903847972540055</v>
+        <v>0.09130689471600895</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.07328829177641216</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.01183528365725461</v>
       </c>
       <c r="N14">
-        <v>0.06004872762182245</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.5125987520077047</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.05919894204530074</v>
       </c>
       <c r="Q14">
-        <v>0.5440900338398507</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.5125191246372864</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.5061667504817819</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.466616695687719</v>
+        <v>4.460976746963468</v>
       </c>
       <c r="C15">
-        <v>1.131604591292302</v>
+        <v>1.129830165920481</v>
       </c>
       <c r="D15">
-        <v>0.1550653409589273</v>
+        <v>0.1603583726513307</v>
       </c>
       <c r="E15">
-        <v>0.1419545016207024</v>
+        <v>0.1403227541588379</v>
       </c>
       <c r="F15">
-        <v>0.2634278417316693</v>
+        <v>0.2494828036762868</v>
       </c>
       <c r="G15">
-        <v>0.1345815958331613</v>
+        <v>0.1559664983130631</v>
       </c>
       <c r="H15">
-        <v>0.1759696642142785</v>
+        <v>0.1757977601706671</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1390747564256785</v>
+        <v>0.141666397659499</v>
       </c>
       <c r="K15">
-        <v>0.09073135749124495</v>
+        <v>0.09198167849745613</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.07352505071845084</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.01179075507310667</v>
       </c>
       <c r="N15">
-        <v>0.05667049580163663</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.4991590681589386</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.05588218456423988</v>
       </c>
       <c r="Q15">
-        <v>0.5274336475252568</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.4990515964743025</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.4958716115894219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.187966193377974</v>
+        <v>4.184423304475274</v>
       </c>
       <c r="C16">
-        <v>1.069741469579441</v>
+        <v>1.068919370353626</v>
       </c>
       <c r="D16">
-        <v>0.1455743393954378</v>
+        <v>0.1485039784288347</v>
       </c>
       <c r="E16">
-        <v>0.13615387766799</v>
+        <v>0.1348037619819458</v>
       </c>
       <c r="F16">
-        <v>0.2559014885044633</v>
+        <v>0.2491802223818951</v>
       </c>
       <c r="G16">
-        <v>0.1328051448913357</v>
+        <v>0.1346672982186377</v>
       </c>
       <c r="H16">
-        <v>0.162617259980351</v>
+        <v>0.1625321565394273</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1421611816031998</v>
+        <v>0.1641211942647942</v>
       </c>
       <c r="K16">
-        <v>0.09878280328744804</v>
+        <v>0.09961450113739528</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.07566559455571609</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.01382009576360499</v>
       </c>
       <c r="N16">
-        <v>0.05644013406452864</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.4693730171314101</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.05617493080989888</v>
       </c>
       <c r="Q16">
-        <v>0.5299154023401087</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.4694530287275072</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.5163723956188591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.000586014672422</v>
+        <v>3.998008610013983</v>
       </c>
       <c r="C17">
-        <v>0.9969674166737263</v>
+        <v>1.000161498205472</v>
       </c>
       <c r="D17">
-        <v>0.1360049150458593</v>
+        <v>0.1382385419996552</v>
       </c>
       <c r="E17">
-        <v>0.1207351992316426</v>
+        <v>0.1196695804946586</v>
       </c>
       <c r="F17">
-        <v>0.2651494375095069</v>
+        <v>0.2600829657869639</v>
       </c>
       <c r="G17">
-        <v>0.1433275827963314</v>
+        <v>0.1361485948292867</v>
       </c>
       <c r="H17">
-        <v>0.124521815096557</v>
+        <v>0.1244724889818229</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1503675900443255</v>
+        <v>0.1811826134288879</v>
       </c>
       <c r="K17">
-        <v>0.1065422429060057</v>
+        <v>0.1065189851988326</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.07791598938181532</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.01596663051326885</v>
       </c>
       <c r="N17">
-        <v>0.06455916711305321</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.468710181136565</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.06470922504341203</v>
       </c>
       <c r="Q17">
-        <v>0.5692726670486508</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4690211075815895</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.5592068813522388</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.870719883259312</v>
+        <v>3.868344474981939</v>
       </c>
       <c r="C18">
-        <v>0.9099980970672163</v>
+        <v>0.9206036444777794</v>
       </c>
       <c r="D18">
-        <v>0.1255603227718041</v>
+        <v>0.1280026945207169</v>
       </c>
       <c r="E18">
-        <v>0.09985918573518227</v>
+        <v>0.09897558754029312</v>
       </c>
       <c r="F18">
-        <v>0.2902856464640706</v>
+        <v>0.2835100748082908</v>
       </c>
       <c r="G18">
-        <v>0.166581063407726</v>
+        <v>0.1533104298727395</v>
       </c>
       <c r="H18">
-        <v>0.0716277921408448</v>
+        <v>0.07158930097835992</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1642902583947645</v>
+        <v>0.1981270978914438</v>
       </c>
       <c r="K18">
-        <v>0.1167812180717922</v>
+        <v>0.1151723454505227</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.0811535929086129</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.01889578662653424</v>
       </c>
       <c r="N18">
-        <v>0.08879483880983585</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.4933715289557341</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.08948002196796878</v>
       </c>
       <c r="Q18">
-        <v>0.6476472384281209</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.494035909500127</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.6319026182146956</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.797165091167187</v>
+        <v>3.794375678581559</v>
       </c>
       <c r="C19">
-        <v>0.8225338906046318</v>
+        <v>0.8421205430528005</v>
       </c>
       <c r="D19">
-        <v>0.1155390661707401</v>
+        <v>0.1186641809859026</v>
       </c>
       <c r="E19">
-        <v>0.08272200474620028</v>
+        <v>0.08162124641348356</v>
       </c>
       <c r="F19">
-        <v>0.3274216185895327</v>
+        <v>0.3165842832848966</v>
       </c>
       <c r="G19">
-        <v>0.2001700332569385</v>
+        <v>0.1817364560901709</v>
       </c>
       <c r="H19">
-        <v>0.02657061891233781</v>
+        <v>0.02652394920241363</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.182547166382264</v>
+        <v>0.2156539183239516</v>
       </c>
       <c r="K19">
-        <v>0.1311344654185245</v>
+        <v>0.1268007381350005</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.08566880477758065</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.02313843285452943</v>
       </c>
       <c r="N19">
-        <v>0.1363499676039481</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5374832803150866</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1378425723307046</v>
       </c>
       <c r="Q19">
-        <v>0.7570630109252079</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.538607011639769</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.7286776106668356</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.882753893894801</v>
+        <v>3.877846344411012</v>
       </c>
       <c r="C20">
-        <v>0.7338651460946437</v>
+        <v>0.7671561997608478</v>
       </c>
       <c r="D20">
-        <v>0.1067905291342441</v>
+        <v>0.1117411180518531</v>
       </c>
       <c r="E20">
-        <v>0.07482833066358763</v>
+        <v>0.07244947487363174</v>
       </c>
       <c r="F20">
-        <v>0.3968759926018848</v>
+        <v>0.3751979393223479</v>
       </c>
       <c r="G20">
-        <v>0.2613022261055917</v>
+        <v>0.2416980570253813</v>
       </c>
       <c r="H20">
-        <v>0.001350017695706196</v>
+        <v>0.001222020337966256</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2121425924441169</v>
+        <v>0.2316341443219869</v>
       </c>
       <c r="K20">
-        <v>0.1555365164693416</v>
+        <v>0.1446819743942651</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.09186147009571499</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.03135997173678717</v>
       </c>
       <c r="N20">
-        <v>0.2459034629225982</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.6352626156658445</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2488828808973125</v>
       </c>
       <c r="Q20">
-        <v>0.9487608400048941</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6371087886071294</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.8868675562280401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.360099254405952</v>
+        <v>4.350869751000062</v>
       </c>
       <c r="C21">
-        <v>0.7931963731790006</v>
+        <v>0.8305397583923764</v>
       </c>
       <c r="D21">
-        <v>0.1181680143234445</v>
+        <v>0.1277088998641318</v>
       </c>
       <c r="E21">
-        <v>0.075836114501105</v>
+        <v>0.07291103977578617</v>
       </c>
       <c r="F21">
-        <v>0.4344008881042356</v>
+        <v>0.3913677822680413</v>
       </c>
       <c r="G21">
-        <v>0.2858007751969751</v>
+        <v>0.3186460279376178</v>
       </c>
       <c r="H21">
-        <v>0.002679860943094414</v>
+        <v>0.002314563232784506</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2175247057720497</v>
+        <v>0.1732226271467709</v>
       </c>
       <c r="K21">
-        <v>0.1486783724885488</v>
+        <v>0.1317159902231921</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.08502593921305035</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.03130994797079367</v>
       </c>
       <c r="N21">
-        <v>0.2807079825503394</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.720794229557761</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2828266014838619</v>
       </c>
       <c r="Q21">
-        <v>1.012345956889448</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.7224079714622391</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.8882745094023932</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.675103554816019</v>
+        <v>4.662871482691855</v>
       </c>
       <c r="C22">
-        <v>0.8369324856661535</v>
+        <v>0.8759091933625598</v>
       </c>
       <c r="D22">
-        <v>0.126182464099557</v>
+        <v>0.1390121424212083</v>
       </c>
       <c r="E22">
-        <v>0.07639091577571927</v>
+        <v>0.07321098338210774</v>
       </c>
       <c r="F22">
-        <v>0.4568622050801139</v>
+        <v>0.3989728955245866</v>
       </c>
       <c r="G22">
-        <v>0.299820609285149</v>
+        <v>0.3746028605939387</v>
       </c>
       <c r="H22">
-        <v>0.00382913644124816</v>
+        <v>0.003259894922255313</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2200692789093921</v>
+        <v>0.1415719663694546</v>
       </c>
       <c r="K22">
-        <v>0.1432940312821085</v>
+        <v>0.1223954863733265</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.08055556723139823</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.0310801726575729</v>
       </c>
       <c r="N22">
-        <v>0.2975999869819645</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.7730816186089271</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.2990108160001199</v>
       </c>
       <c r="Q22">
-        <v>1.047635889642294</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.774435526776017</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.8806812532752559</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.506944754765357</v>
+        <v>4.496401819029643</v>
       </c>
       <c r="C23">
-        <v>0.8135885497695767</v>
+        <v>0.852702154868183</v>
       </c>
       <c r="D23">
-        <v>0.1219046939141748</v>
+        <v>0.1325763268037008</v>
       </c>
       <c r="E23">
-        <v>0.07609483986197457</v>
+        <v>0.07307318634589377</v>
       </c>
       <c r="F23">
-        <v>0.4447823410439256</v>
+        <v>0.3966711022438787</v>
       </c>
       <c r="G23">
-        <v>0.2922553034168942</v>
+        <v>0.3376184089569279</v>
       </c>
       <c r="H23">
-        <v>0.00319219153020095</v>
+        <v>0.00274188696987393</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2186640817024426</v>
+        <v>0.1624033067122213</v>
       </c>
       <c r="K23">
-        <v>0.1461056661564566</v>
+        <v>0.1278213341641443</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.08304820106848609</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.03140125467088239</v>
       </c>
       <c r="N23">
-        <v>0.2885792729286152</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.7451661820704985</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.2904656508725196</v>
       </c>
       <c r="Q23">
-        <v>1.028527743209168</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.7467169454909595</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.8898584507698786</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.870717025633837</v>
+        <v>3.865785201328492</v>
       </c>
       <c r="C24">
-        <v>0.725187789398575</v>
+        <v>0.7590737253832742</v>
       </c>
       <c r="D24">
-        <v>0.1057070345420499</v>
+        <v>0.1106809778388111</v>
       </c>
       <c r="E24">
-        <v>0.07497124160030766</v>
+        <v>0.07246710279336122</v>
       </c>
       <c r="F24">
-        <v>0.4009769893574031</v>
+        <v>0.3789005645997321</v>
       </c>
       <c r="G24">
-        <v>0.265352078647588</v>
+        <v>0.2447952759841243</v>
       </c>
       <c r="H24">
-        <v>0.001277731849241848</v>
+        <v>0.001147632705316481</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2143473961562279</v>
+        <v>0.2341057759653253</v>
       </c>
       <c r="K24">
-        <v>0.158080473300048</v>
+        <v>0.1467580925927301</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.09265966652420587</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.03210878648450155</v>
       </c>
       <c r="N24">
-        <v>0.2545162826380079</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.6396089655901704</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2576502332212698</v>
       </c>
       <c r="Q24">
-        <v>0.9619579087777907</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.6415095382626461</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.8986660125867587</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.185085807016605</v>
+        <v>3.18458293342934</v>
       </c>
       <c r="C25">
-        <v>0.6297701974574466</v>
+        <v>0.6473060775720114</v>
       </c>
       <c r="D25">
-        <v>0.0882248535020338</v>
+        <v>0.09136493309372895</v>
       </c>
       <c r="E25">
-        <v>0.07374512679980288</v>
+        <v>0.07150081793123564</v>
       </c>
       <c r="F25">
-        <v>0.3574412432057628</v>
+        <v>0.34258673554924</v>
       </c>
       <c r="G25">
-        <v>0.2396636418092655</v>
+        <v>0.2168203599012486</v>
       </c>
       <c r="H25">
-        <v>0.0001564513106663279</v>
+        <v>0.0001568944713529197</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2116581670944981</v>
+        <v>0.2397729435094931</v>
       </c>
       <c r="K25">
-        <v>0.1735995704884079</v>
+        <v>0.1635440349892345</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1024604293138935</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.03255203911669824</v>
       </c>
       <c r="N25">
-        <v>0.2179224345834569</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.5259724260118759</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.221328202718162</v>
       </c>
       <c r="Q25">
-        <v>0.9013018617511506</v>
+        <v>0.5275458118615148</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.8577164574079461</v>
       </c>
     </row>
   </sheetData>
